--- a/資料集/Equipment.xlsx
+++ b/資料集/Equipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leecc\Downloads\week7\Database excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Database Project1222\資料集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EAB75-973F-4616-BB73-B3CD9F1D5E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6AA2C0-F6D7-4976-82AA-FCAA2D5D8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -363,13 +376,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -388,12 +407,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,15 +750,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>101</v>
       </c>
@@ -739,7 +793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -776,8 +830,10 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -814,8 +870,10 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -852,8 +910,10 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -890,8 +950,10 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -928,8 +990,10 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1030,10 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1070,10 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1110,10 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1080,8 +1150,10 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1118,8 +1190,10 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1156,8 +1230,10 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4579,6 +4655,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
